--- a/artfynd/A 42447-2020.xlsx
+++ b/artfynd/A 42447-2020.xlsx
@@ -680,14 +680,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>81279503</v>
+        <v>61680670</v>
       </c>
       <c r="B2" t="n">
         <v>108190</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Behöver inte valideras</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -714,9 +714,12 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Kvillinge socken, Häradsveden, Ög</t>
+          <t>Häradssveden, Ög</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -726,7 +729,7 @@
         <v>6506416.904137127</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -748,9 +751,14 @@
           <t>Kvillinge</t>
         </is>
       </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>E-Nor-0210</t>
+        </is>
+      </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1858-01-01</t>
+          <t>2016-08-11</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +768,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1858-12-31</t>
+          <t>2016-08-11</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -770,42 +778,32 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Leg. Carl Swartling {Pleurospermum austriacum, ÖG. Qvillinge sn. Häradsveden, på Kolmorden. Carl Swartling}</t>
+          <t>Området har tidigare betats av får, nu igenväxande</t>
         </is>
       </c>
       <c r="AD2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>Lund-Botaniska/Zoologiska museet</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>1170623</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Anders Svenson</t>
+          <t>Margareta Edqvist</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Via Anders Svenson</t>
+          <t>bert lindgren, Mats Blomstedt, Rolf Wahlström</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>Äldre fynd i Östergötlands flora</t>
+          <t>Floraväkteri Sverige</t>
         </is>
       </c>
     </row>
